--- a/results/FrequencyTables/26990633_LTR-R.xlsx
+++ b/results/FrequencyTables/26990633_LTR-R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0606060606060606</v>
+        <v>0.119259259259259</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.0407407407407407</v>
       </c>
       <c r="D2">
-        <v>0.0404040404040404</v>
+        <v>0.0155555555555556</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00592592592592593</v>
       </c>
       <c r="F2">
-        <v>0.0101010101010101</v>
+        <v>0.02</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0103703703703704</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00444444444444444</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00444444444444444</v>
       </c>
       <c r="J2">
-        <v>0.0101010101010101</v>
+        <v>0.017037037037037</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="L2">
-        <v>0.0202020202020202</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.979259259259259</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00592592592592593</v>
       </c>
       <c r="O2">
-        <v>0.0101010101010101</v>
+        <v>0.0407407407407407</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0244444444444444</v>
       </c>
       <c r="Q2">
-        <v>0.0101010101010101</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.995555555555556</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00592592592592593</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00148148148148148</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00888888888888889</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,46 +539,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0177777777777778</v>
       </c>
       <c r="C3">
-        <v>0.96969696969697</v>
+        <v>0.900740740740741</v>
       </c>
       <c r="D3">
-        <v>0.95959595959596</v>
+        <v>0.951111111111111</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="I3">
-        <v>0.94949494949495</v>
+        <v>0.952592592592593</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.964444444444444</v>
       </c>
       <c r="O3">
-        <v>0.141414141414141</v>
+        <v>0.0851851851851852</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0244444444444444</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0251851851851852</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.939393939393939</v>
+        <v>0.855555555555556</v>
       </c>
       <c r="C4">
-        <v>0.0101010101010101</v>
+        <v>0.0214814814814815</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.0466666666666667</v>
       </c>
       <c r="F4">
-        <v>0.98989898989899</v>
+        <v>0.971851851851852</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.964444444444444</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.975555555555556</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0155555555555556</v>
       </c>
       <c r="J4">
-        <v>0.98989898989899</v>
+        <v>0.967407407407407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.985925925925926</v>
       </c>
       <c r="L4">
-        <v>0.97979797979798</v>
+        <v>0.980740740740741</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0192592592592593</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0207407407407407</v>
       </c>
       <c r="O4">
-        <v>0.0505050505050505</v>
+        <v>0.0192592592592593</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.974074074074074</v>
       </c>
       <c r="Q4">
-        <v>0.98989898989899</v>
+        <v>0.993333333333333</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.974814814814815</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.995555555555556</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.986666666666667</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.956296296296296</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.965185185185185</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="C5">
-        <v>0.0101010101010101</v>
+        <v>0.0362962962962963</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="E5">
-        <v>0.98989898989899</v>
+        <v>0.946666666666667</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00666666666666667</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="I5">
-        <v>0.0505050505050505</v>
+        <v>0.0274074074074074</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00814814814814815</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00518518518518519</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00148148148148148</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00888888888888889</v>
       </c>
       <c r="O5">
-        <v>0.797979797979798</v>
+        <v>0.854814814814815</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00148148148148148</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.951851851851852</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00814814814814815</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00814814814814815</v>
       </c>
     </row>
   </sheetData>
